--- a/wiki/功能模块划分.xlsx
+++ b/wiki/功能模块划分.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="19395" windowHeight="9405"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>影片信息管理模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,30 @@
   </si>
   <si>
     <t>新增评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户小组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建小组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除小组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新小组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询小组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,6 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -831,17 +858,65 @@
         <v>30</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="2"/>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A47:A51"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wiki/功能模块划分.xlsx
+++ b/wiki/功能模块划分.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="120" yWindow="135" windowWidth="19395" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="model" sheetId="1" r:id="rId1"/>
+    <sheet name="table" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>影片信息管理模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,38 @@
   </si>
   <si>
     <t>注册信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户动态信息首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女优活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新片活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作公司活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,10 +296,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -589,7 +621,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -597,19 +629,19 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -618,7 +650,7 @@
       <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -626,19 +658,19 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -647,7 +679,7 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
@@ -655,19 +687,19 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -676,7 +708,7 @@
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
@@ -684,43 +716,43 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -729,7 +761,7 @@
       <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
@@ -737,13 +769,13 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>18</v>
       </c>
@@ -752,7 +784,7 @@
       <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -763,13 +795,13 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -778,7 +810,7 @@
       <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -789,19 +821,19 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>37</v>
       </c>
@@ -810,7 +842,7 @@
       <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
@@ -818,19 +850,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B43" t="s">
@@ -841,7 +873,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" t="s">
         <v>24</v>
       </c>
@@ -850,7 +882,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" t="s">
         <v>28</v>
       </c>
@@ -859,7 +891,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B47" t="s">
@@ -867,31 +899,36 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="3"/>
+      <c r="A53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
@@ -903,20 +940,66 @@
       <c r="A56" s="3"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="3"/>
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="3"/>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="3"/>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -927,7 +1010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/wiki/功能模块划分.xlsx
+++ b/wiki/功能模块划分.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="19395" windowHeight="9405"/>
+    <workbookView xWindow="7305" yWindow="3930" windowWidth="12495" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
     <sheet name="table" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="247">
   <si>
     <t>影片信息管理模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,771 @@
   </si>
   <si>
     <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作公司id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jp_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500字以内的简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birth_place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演员的CUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bwh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演员的B/W/H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演员的身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演员的体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wiki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于该演员的长文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增，主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演员id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actors
+（演员表，存储演员的基本信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor_activity
+（演员活动表，存储演员活动内容）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动类型，关联了活动类型表，如下马、出演、等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动描述，如：开通了微博、隐退等事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动相关联的影片ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency
+(制作公司表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>official_site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wiki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500字以内简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于该公司的长文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生活动的制作公司ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动类型，如：发布新片，出道新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动对象的类型，如：影片，演员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动对象的ID，如影片的ID，演员的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency_activity
+(制作公司的活动)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movies
+(影片表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnet_link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thunder_link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed2k_link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wiki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bt_attachment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁力下载链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅雷下载地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电驴下载地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片介绍文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_actor_relations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演员ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类的父ID，方便设置无级分类,0表示一级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_relations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagid,自增，主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_relations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_user_relations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动的对象目标名称，如：影片，评论，小组等名词。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动的动作名称，如：出演、喜欢、讨厌、看过等动词。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的登录名，唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮件地址，唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称，10个汉字以内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140字以内的活动描述信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户活动的动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户活动的对象类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户活动的对象ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建活动的时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_activity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +1053,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,6 +1065,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1008,16 +1776,1386 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="48.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28">
+        <v>200</v>
+      </c>
+      <c r="D28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29">
+        <v>1000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30">
+        <v>200</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42">
+        <v>500</v>
+      </c>
+      <c r="F42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="3"/>
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="3"/>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="3"/>
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="3"/>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="3"/>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="3"/>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="3"/>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="3"/>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="3"/>
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="3"/>
+      <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56">
+        <v>200</v>
+      </c>
+      <c r="D56" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="3"/>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="3"/>
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="3"/>
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="3"/>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="3"/>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="3"/>
+      <c r="B66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66">
+        <v>200</v>
+      </c>
+      <c r="D66" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="3"/>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="3"/>
+      <c r="B70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="3"/>
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>188</v>
+      </c>
+      <c r="F73" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="3"/>
+      <c r="B74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>189</v>
+      </c>
+      <c r="F74" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="3"/>
+      <c r="B75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75">
+        <v>200</v>
+      </c>
+      <c r="D75" t="s">
+        <v>190</v>
+      </c>
+      <c r="F75" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="3"/>
+      <c r="B76" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" t="s">
+        <v>191</v>
+      </c>
+      <c r="F76" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="3"/>
+      <c r="B79" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="3"/>
+      <c r="B82" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="3"/>
+      <c r="B83" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="3"/>
+      <c r="B84" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="3"/>
+      <c r="B85" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="3"/>
+      <c r="B86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="3"/>
+      <c r="B87" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="3"/>
+      <c r="B90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90">
+        <v>50</v>
+      </c>
+      <c r="D90" t="s">
+        <v>209</v>
+      </c>
+      <c r="F90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>188</v>
+      </c>
+      <c r="F92" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="3"/>
+      <c r="B93" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>188</v>
+      </c>
+      <c r="F93" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>223</v>
+      </c>
+      <c r="F95" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="3"/>
+      <c r="B96" t="s">
+        <v>215</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>224</v>
+      </c>
+      <c r="F96" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="3"/>
+      <c r="B97" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="3"/>
+      <c r="B98" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>225</v>
+      </c>
+      <c r="F98" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="3"/>
+      <c r="B99" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99">
+        <v>50</v>
+      </c>
+      <c r="D99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="3"/>
+      <c r="B100" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100">
+        <v>20</v>
+      </c>
+      <c r="D100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="3"/>
+      <c r="B101" t="s">
+        <v>220</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="3"/>
+      <c r="B102" t="s">
+        <v>221</v>
+      </c>
+      <c r="D102" t="s">
+        <v>226</v>
+      </c>
+      <c r="F102" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B104" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>188</v>
+      </c>
+      <c r="F104" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="3"/>
+      <c r="B105" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>225</v>
+      </c>
+      <c r="F105" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="3"/>
+      <c r="B106" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>239</v>
+      </c>
+      <c r="F106" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="3"/>
+      <c r="B107" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>188</v>
+      </c>
+      <c r="F107" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="3"/>
+      <c r="B108" t="s">
+        <v>198</v>
+      </c>
+      <c r="C108">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>188</v>
+      </c>
+      <c r="F108" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="3"/>
+      <c r="B109" t="s">
+        <v>237</v>
+      </c>
+      <c r="C109">
+        <v>280</v>
+      </c>
+      <c r="D109" t="s">
+        <v>224</v>
+      </c>
+      <c r="F109" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="3"/>
+      <c r="B110" t="s">
+        <v>238</v>
+      </c>
+      <c r="D110" t="s">
+        <v>226</v>
+      </c>
+      <c r="F110" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A95:A102"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A81:A87"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A51:A52"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/wiki/功能模块划分.xlsx
+++ b/wiki/功能模块划分.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="7305" yWindow="3930" windowWidth="12495" windowHeight="7605" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="270">
   <si>
     <t>影片信息管理模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -838,18 +838,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>actor_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agency_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -870,14 +858,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>targets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动的对象目标名称，如：影片，评论，小组等名词。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活动的动作名称，如：出演、喜欢、讨厌、看过等动词。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -938,10 +918,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电子邮件地址，唯一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1007,6 +983,122 @@
   </si>
   <si>
     <t>user_activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动目标的类型：如：影片、公司...(名词性质的)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachments(附件表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如photo，种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用评论的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID(常量：管理员、vip、普通用户、游客)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1053,7 +1145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,6 +1154,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1389,7 +1484,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1397,19 +1492,19 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1418,7 +1513,7 @@
       <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -1426,19 +1521,19 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1447,7 +1542,7 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
@@ -1455,19 +1550,19 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -1476,7 +1571,7 @@
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
@@ -1484,43 +1579,43 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -1529,7 +1624,7 @@
       <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
@@ -1537,13 +1632,13 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
+      <c r="A28" s="4"/>
       <c r="B28" t="s">
         <v>18</v>
       </c>
@@ -1552,7 +1647,7 @@
       <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -1563,13 +1658,13 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
+      <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -1578,7 +1673,7 @@
       <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -1589,19 +1684,19 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
       <c r="B35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
+      <c r="A36" s="4"/>
       <c r="B36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
       <c r="B37" t="s">
         <v>37</v>
       </c>
@@ -1610,7 +1705,7 @@
       <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
@@ -1618,19 +1713,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
+      <c r="A40" s="4"/>
       <c r="B40" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
       <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B43" t="s">
@@ -1641,7 +1736,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
+      <c r="A44" s="4"/>
       <c r="B44" t="s">
         <v>24</v>
       </c>
@@ -1650,7 +1745,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
+      <c r="A45" s="4"/>
       <c r="B45" t="s">
         <v>28</v>
       </c>
@@ -1659,7 +1754,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B47" t="s">
@@ -1667,31 +1762,31 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
+      <c r="A48" s="4"/>
       <c r="B48" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
+      <c r="A49" s="4"/>
       <c r="B49" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="3"/>
+      <c r="A50" s="4"/>
       <c r="B50" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="3"/>
+      <c r="A51" s="4"/>
       <c r="B51" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B53" t="s">
@@ -1699,19 +1794,19 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="3"/>
+      <c r="A54" s="4"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="3"/>
+      <c r="A55" s="4"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="3"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B58" t="s">
@@ -1719,22 +1814,22 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="3"/>
+      <c r="A59" s="4"/>
       <c r="B59" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="3"/>
+      <c r="A60" s="4"/>
       <c r="B60" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="3"/>
+      <c r="A61" s="4"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B63" t="s">
@@ -1742,16 +1837,16 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="3"/>
+      <c r="A64" s="4"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3"/>
+      <c r="A65" s="4"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3"/>
+      <c r="A66" s="4"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3"/>
+      <c r="A67" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1776,11 +1871,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1810,7 +1905,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B2" t="s">
@@ -1827,7 +1922,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>65</v>
       </c>
@@ -1842,7 +1937,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>67</v>
       </c>
@@ -1857,7 +1952,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>70</v>
       </c>
@@ -1872,7 +1967,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -1887,7 +1982,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>75</v>
       </c>
@@ -1902,7 +1997,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>77</v>
       </c>
@@ -1917,7 +2012,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>79</v>
       </c>
@@ -1932,7 +2027,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>81</v>
       </c>
@@ -1947,7 +2042,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>83</v>
       </c>
@@ -1962,7 +2057,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>85</v>
       </c>
@@ -1977,7 +2072,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>87</v>
       </c>
@@ -1992,7 +2087,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>89</v>
       </c>
@@ -2004,7 +2099,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>92</v>
       </c>
@@ -2016,7 +2111,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>95</v>
       </c>
@@ -2031,7 +2126,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>97</v>
       </c>
@@ -2046,10 +2141,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B20" t="s">
@@ -2066,7 +2161,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>101</v>
       </c>
@@ -2081,7 +2176,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>103</v>
       </c>
@@ -2096,7 +2191,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>108</v>
       </c>
@@ -2111,172 +2206,172 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>20</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>112</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" t="s">
         <v>114</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>115</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>118</v>
       </c>
-      <c r="C27">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
         <v>63</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" t="s">
         <v>119</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>200</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>123</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" t="s">
         <v>120</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>1000</v>
-      </c>
-      <c r="D29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30">
-        <v>200</v>
       </c>
       <c r="D30" t="s">
         <v>71</v>
       </c>
       <c r="F30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31">
+        <v>200</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" t="s">
         <v>122</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>124</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" t="s">
         <v>97</v>
       </c>
-      <c r="C32">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
         <v>63</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" t="s">
         <v>95</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>100</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>71</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>62</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>20</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>134</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="4"/>
+      <c r="B37" t="s">
         <v>65</v>
-      </c>
-      <c r="C36">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" t="s">
-        <v>132</v>
       </c>
       <c r="C37">
         <v>11</v>
@@ -2285,285 +2380,286 @@
         <v>63</v>
       </c>
       <c r="F37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="4"/>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="4"/>
+      <c r="B39" t="s">
         <v>133</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>4</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>135</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
-      <c r="B39" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="4"/>
+      <c r="B40" t="s">
         <v>111</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>112</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>62</v>
       </c>
-      <c r="C41">
-        <v>11</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="B42" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="4"/>
+      <c r="B43" t="s">
         <v>143</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>500</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="B43" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="4"/>
+      <c r="B44" t="s">
         <v>144</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>148</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="4"/>
+      <c r="B45" t="s">
         <v>150</v>
       </c>
-      <c r="C44">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
         <v>63</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
-      <c r="B45" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+      <c r="B46" t="s">
         <v>145</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>148</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
-      <c r="B46" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="4"/>
+      <c r="B47" t="s">
         <v>146</v>
-      </c>
-      <c r="D46" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="3"/>
-      <c r="B47" t="s">
-        <v>147</v>
       </c>
       <c r="D47" t="s">
         <v>149</v>
       </c>
       <c r="F47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
-      <c r="B48" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+      <c r="B49" t="s">
         <v>97</v>
       </c>
-      <c r="C48">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
         <v>63</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
-      <c r="B49" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+      <c r="B50" t="s">
         <v>95</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>20</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>158</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B51" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51">
-        <v>20</v>
-      </c>
-      <c r="D51" t="s">
-        <v>163</v>
-      </c>
-      <c r="F51" t="s">
-        <v>164</v>
-      </c>
+      <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
+      <c r="A52" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>248</v>
       </c>
       <c r="C52">
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" t="s">
-        <v>165</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="4"/>
+      <c r="B53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53">
+        <v>500</v>
+      </c>
+      <c r="D53" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="A54" s="4"/>
       <c r="B54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="3"/>
+      <c r="A55" s="4"/>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="C55">
         <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="F55" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="3"/>
+      <c r="A56" s="4"/>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="C56">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="3"/>
+      <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="F57" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s">
-        <v>63</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="4"/>
+      <c r="B58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58">
+        <v>500</v>
+      </c>
+      <c r="D58" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="3"/>
+      <c r="A60" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="B60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="4"/>
+      <c r="B61" t="s">
         <v>101</v>
-      </c>
-      <c r="C60">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="3"/>
-      <c r="B61" t="s">
-        <v>162</v>
       </c>
       <c r="C61">
         <v>11</v>
@@ -2571,72 +2667,81 @@
       <c r="D61" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="3"/>
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="F61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
         <v>63</v>
       </c>
+      <c r="F63" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
-        <v>177</v>
-      </c>
+      <c r="A64" s="4"/>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D64" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="4"/>
+      <c r="B65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65">
+        <v>200</v>
+      </c>
+      <c r="D65" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="4"/>
+      <c r="B66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
         <v>63</v>
       </c>
-      <c r="F64" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="3"/>
-      <c r="B65" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65">
-        <v>50</v>
-      </c>
-      <c r="D65" t="s">
-        <v>178</v>
-      </c>
-      <c r="F65" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="3"/>
-      <c r="B66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C66">
-        <v>200</v>
-      </c>
-      <c r="D66" t="s">
-        <v>71</v>
+      <c r="E66">
+        <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="3" t="s">
-        <v>183</v>
+      <c r="A68" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C68">
         <v>11</v>
@@ -2646,9 +2751,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="3"/>
+      <c r="A69" s="4"/>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="C69">
         <v>11</v>
@@ -2657,22 +2762,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="3"/>
-      <c r="B70" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="3"/>
+      <c r="A71" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C71">
         <v>11</v>
@@ -2680,95 +2775,105 @@
       <c r="D71" t="s">
         <v>63</v>
       </c>
+      <c r="F71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="4"/>
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="4"/>
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73">
+        <v>200</v>
+      </c>
+      <c r="D73" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="4"/>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="4"/>
+      <c r="B77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="4"/>
+      <c r="B78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="4"/>
+      <c r="B79" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B73" t="s">
-        <v>184</v>
-      </c>
-      <c r="C73">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s">
-        <v>188</v>
-      </c>
-      <c r="F73" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="3"/>
-      <c r="B74" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74">
-        <v>50</v>
-      </c>
-      <c r="D74" t="s">
-        <v>189</v>
-      </c>
-      <c r="F74" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="3"/>
-      <c r="B75" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75">
-        <v>200</v>
-      </c>
-      <c r="D75" t="s">
-        <v>190</v>
-      </c>
-      <c r="F75" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="3"/>
-      <c r="B76" t="s">
-        <v>187</v>
-      </c>
-      <c r="D76" t="s">
-        <v>191</v>
-      </c>
-      <c r="F76" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B78" t="s">
-        <v>197</v>
-      </c>
-      <c r="C78">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="3"/>
-      <c r="B79" t="s">
-        <v>198</v>
-      </c>
-      <c r="C79">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="B81" t="s">
         <v>184</v>
@@ -2779,53 +2884,58 @@
       <c r="D81" t="s">
         <v>188</v>
       </c>
+      <c r="F81" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="3"/>
+      <c r="A82" s="4"/>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C82">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D82" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="F82" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="3"/>
+      <c r="A83" s="4"/>
       <c r="B83" t="s">
-        <v>202</v>
+        <v>186</v>
+      </c>
+      <c r="C83">
+        <v>200</v>
       </c>
       <c r="D83" t="s">
-        <v>207</v>
+        <v>190</v>
+      </c>
+      <c r="F83" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="3"/>
+      <c r="A84" s="4"/>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D84" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="3"/>
-      <c r="B85" t="s">
-        <v>204</v>
-      </c>
-      <c r="C85">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s">
-        <v>188</v>
+        <v>191</v>
+      </c>
+      <c r="F84" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="3"/>
+      <c r="A86" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="B86" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C86">
         <v>11</v>
@@ -2835,9 +2945,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="3"/>
+      <c r="A87" s="4"/>
       <c r="B87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C87">
         <v>11</v>
@@ -2846,312 +2956,414 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="4"/>
+      <c r="B88" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" t="s">
         <v>184</v>
       </c>
-      <c r="C89">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C90">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
         <v>188</v>
       </c>
-      <c r="F89" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="3"/>
-      <c r="B90" t="s">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="4"/>
+      <c r="B91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="4"/>
+      <c r="B92" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="4"/>
+      <c r="B93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="4"/>
+      <c r="B94" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="4"/>
+      <c r="B95" t="s">
+        <v>244</v>
+      </c>
+      <c r="C95">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="4"/>
+      <c r="B96" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>242</v>
+      </c>
+      <c r="E96" t="s">
+        <v>264</v>
+      </c>
+      <c r="F96" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="4"/>
+      <c r="B99" t="s">
         <v>185</v>
-      </c>
-      <c r="C90">
-        <v>50</v>
-      </c>
-      <c r="D90" t="s">
-        <v>209</v>
-      </c>
-      <c r="F90" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B92" t="s">
-        <v>184</v>
-      </c>
-      <c r="C92">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s">
-        <v>188</v>
-      </c>
-      <c r="F92" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="3"/>
-      <c r="B93" t="s">
-        <v>184</v>
-      </c>
-      <c r="C93">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s">
-        <v>188</v>
-      </c>
-      <c r="F93" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B95" t="s">
-        <v>184</v>
-      </c>
-      <c r="C95">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s">
-        <v>223</v>
-      </c>
-      <c r="F95" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="3"/>
-      <c r="B96" t="s">
-        <v>215</v>
-      </c>
-      <c r="C96">
-        <v>20</v>
-      </c>
-      <c r="D96" t="s">
-        <v>224</v>
-      </c>
-      <c r="F96" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="3"/>
-      <c r="B97" t="s">
-        <v>216</v>
-      </c>
-      <c r="C97">
-        <v>20</v>
-      </c>
-      <c r="D97" t="s">
-        <v>190</v>
-      </c>
-      <c r="F97" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="3"/>
-      <c r="B98" t="s">
-        <v>217</v>
-      </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>225</v>
-      </c>
-      <c r="F98" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="3"/>
-      <c r="B99" t="s">
-        <v>218</v>
       </c>
       <c r="C99">
         <v>50</v>
       </c>
       <c r="D99" t="s">
+        <v>206</v>
+      </c>
+      <c r="F99" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B102" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>218</v>
+      </c>
+      <c r="F102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="4"/>
+      <c r="B103" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103">
+        <v>20</v>
+      </c>
+      <c r="D103" t="s">
+        <v>219</v>
+      </c>
+      <c r="F103" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="4"/>
+      <c r="B104" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="D104" t="s">
         <v>190</v>
       </c>
-      <c r="F99" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" s="3"/>
-      <c r="B100" t="s">
-        <v>219</v>
-      </c>
-      <c r="C100">
-        <v>20</v>
-      </c>
-      <c r="D100" t="s">
-        <v>190</v>
-      </c>
-      <c r="F100" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="3"/>
-      <c r="B101" t="s">
-        <v>220</v>
-      </c>
-      <c r="C101">
-        <v>20</v>
-      </c>
-      <c r="D101" t="s">
-        <v>190</v>
-      </c>
-      <c r="F101" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" s="3"/>
-      <c r="B102" t="s">
-        <v>221</v>
-      </c>
-      <c r="D102" t="s">
-        <v>226</v>
-      </c>
-      <c r="F102" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B104" t="s">
-        <v>184</v>
-      </c>
-      <c r="C104">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s">
-        <v>188</v>
-      </c>
       <c r="F104" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="3"/>
+      <c r="A105" s="4"/>
       <c r="B105" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105" t="s">
+        <v>220</v>
+      </c>
+      <c r="F105" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="4"/>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106">
+        <v>50</v>
+      </c>
+      <c r="D106" t="s">
+        <v>190</v>
+      </c>
+      <c r="F106" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="4"/>
+      <c r="B107" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>190</v>
+      </c>
+      <c r="F107" t="s">
         <v>225</v>
       </c>
-      <c r="F105" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="3"/>
-      <c r="B106" t="s">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="4"/>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>190</v>
+      </c>
+      <c r="F108" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="4"/>
+      <c r="B109" t="s">
+        <v>216</v>
+      </c>
+      <c r="D109" t="s">
+        <v>221</v>
+      </c>
+      <c r="F109" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>188</v>
+      </c>
+      <c r="F111" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="4"/>
+      <c r="B112" t="s">
+        <v>228</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>235</v>
       </c>
-      <c r="C106">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="4"/>
+      <c r="B113" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113">
         <v>2</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D113" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="4"/>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>188</v>
+      </c>
+      <c r="F114" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="4"/>
+      <c r="B115" t="s">
+        <v>198</v>
+      </c>
+      <c r="C115">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>188</v>
+      </c>
+      <c r="F115" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" s="4"/>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116">
+        <v>280</v>
+      </c>
+      <c r="D116" t="s">
+        <v>219</v>
+      </c>
+      <c r="F116" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="4"/>
+      <c r="B117" t="s">
+        <v>232</v>
+      </c>
+      <c r="D117" t="s">
+        <v>221</v>
+      </c>
+      <c r="F117" t="s">
         <v>239</v>
       </c>
-      <c r="F106" t="s">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B119" t="s">
+        <v>267</v>
+      </c>
+      <c r="C119">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="3"/>
-      <c r="B107" t="s">
-        <v>236</v>
-      </c>
-      <c r="C107">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s">
-        <v>188</v>
-      </c>
-      <c r="F107" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="3"/>
-      <c r="B108" t="s">
-        <v>198</v>
-      </c>
-      <c r="C108">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s">
-        <v>188</v>
-      </c>
-      <c r="F108" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="3"/>
-      <c r="B109" t="s">
-        <v>237</v>
-      </c>
-      <c r="C109">
-        <v>280</v>
-      </c>
-      <c r="D109" t="s">
-        <v>224</v>
-      </c>
-      <c r="F109" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" s="3"/>
-      <c r="B110" t="s">
-        <v>238</v>
-      </c>
-      <c r="D110" t="s">
-        <v>226</v>
-      </c>
-      <c r="F110" t="s">
-        <v>245</v>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="4"/>
+      <c r="B120" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120">
+        <v>50</v>
+      </c>
+      <c r="D120" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="4"/>
+      <c r="B121" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121">
+        <v>50</v>
+      </c>
+      <c r="D121" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A95:A102"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A81:A87"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A64:A66"/>
+  <mergeCells count="18">
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A71:A73"/>
     <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A90:A96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
